--- a/backend/database/prodwatch_database.xlsx
+++ b/backend/database/prodwatch_database.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="4" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="brand" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="platform" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monitor_project" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="monitor_keyword" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="agent" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pipeline_run" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="agent_job" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="author" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="post_raw" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="post_clean" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="spam_score" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sentiment_result" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="topic_result" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="entity_result" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="daily_metric" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="report_citation" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="brand" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="platform" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="monitor_project" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="monitor_keyword" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="agent" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="pipeline_run" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="agent_job" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="author" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="post_raw" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="post_clean" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spam_score" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="sentiment_result" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="topic_result" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="entity_result" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="daily_metric" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="report" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="report_citation" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="post_raw_upload" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -1522,6 +1523,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>platform_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>raw_text</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>publish_time</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>platform_post_id</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>like_count</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>comment_count</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>share_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>weibo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>???????????????</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-12-22 10:30:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>weibo_10001</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xhs</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>??</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>???????App ?????</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-12-22 11:05:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>xhs_20001</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>douyin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>????????????????</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-12-22 12:40:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>douyin_30001</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
